--- a/certification/src/test/resources/testdata/phpassessment2.xlsx
+++ b/certification/src/test/resources/testdata/phpassessment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Mensmerchandisetext</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>$29.98</t>
   </si>
   <si>
     <t>Index</t>
@@ -106,11 +109,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,6 +121,57 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,22 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,6 +199,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -184,82 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,39 +468,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,6 +492,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -532,21 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,20 +553,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,130 +591,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,6 +726,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1117,8 +1123,8 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>14.99</v>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>14.99</v>
@@ -1149,10 +1155,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1160,39 +1166,39 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/certification/src/test/resources/testdata/phpassessment2.xlsx
+++ b/certification/src/test/resources/testdata/phpassessment2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8970"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cartInput" sheetId="1" r:id="rId1"/>
+    <sheet name="titleInput" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -109,11 +109,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,22 +124,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,21 +149,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -199,70 +179,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +277,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,25 +403,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,133 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,130 +591,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
